--- a/biology/Botanique/Salsifis/Salsifis.xlsx
+++ b/biology/Botanique/Salsifis/Salsifis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tragopogon
 Tragopogon, les salsifis, est un genre de plantes à fleurs appartenant à la famille des Astéracées (ou Composées). Il en existe diverses espèces sauvages, souvent méditerranéennes, mais on connaît surtout le salsifis cultivé (Tragopogon porrifolius), dont on consomme les racines cuites et les jeunes pousses en salade. La plupart des salsifis consommés actuellement appartiennent en fait au genre des scorsonères (Scorzonera), qui ont un goût similaire.
@@ -515,12 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Etymologie
-De Candolle indique que le mot salsifi viendrait de l'italien sassefrica (« qui frotte les pierres ») et ajoute que ce sens n'aurait rien de raisonnable[1]. 
+          <t>Etymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De Candolle indique que le mot salsifi viendrait de l'italien sassefrica (« qui frotte les pierres ») et ajoute que ce sens n'aurait rien de raisonnable. 
 Le terme latin « Tragopogon, -onis » vient du grec Tragopogon, formé de tragos, le bouc et pogon, la barbe par référence aux aigrettes barbues qui surmontent les fruits.
-Autres significations
-Le salsifis voit son nom attribué au 11e jour du mois de brumaire du calendrier républicain ou révolutionnaire français[2], généralement chaque 1er novembre du calendrier grégorien (et trois jours après le 8 brumaire ou 29 octobre, jour de la scorsonère, autre plante dont le salsifis noir est usuellement une racine comestible).
-Dans le parler lyonnais, le mot signifie « tresse de cheveux », en particulier celle de Guignol (qu'il nomme sarsifis). Dans le parler savoyard, il est appelé « scorsonère ».
 </t>
         </is>
       </c>
@@ -546,10 +560,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres significations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le salsifis voit son nom attribué au 11e jour du mois de brumaire du calendrier républicain ou révolutionnaire français, généralement chaque 1er novembre du calendrier grégorien (et trois jours après le 8 brumaire ou 29 octobre, jour de la scorsonère, autre plante dont le salsifis noir est usuellement une racine comestible).
+Dans le parler lyonnais, le mot signifie « tresse de cheveux », en particulier celle de Guignol (qu'il nomme sarsifis). Dans le parler savoyard, il est appelé « scorsonère ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salsifis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salsifis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes herbacées annuelles ou bisannuelles, à latex, originaires principalement d'Europe et d'Asie occidentale.
 Racine pivotante développée, généralement comestible.
@@ -562,31 +616,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Salsifis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Salsifis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tragopogon coelesyriacus Boiss.
 Tragopogon crocifolius, le salsifis à feuilles de crocus.
